--- a/工资发放表/工资表 - 中心小学.xlsx
+++ b/工资发放表/工资表 - 中心小学.xlsx
@@ -1,36 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68D232E-2A2F-45E7-BC23-0EB52E301FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430D00A2-2114-4E66-ABFB-B1034696655A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="下埚小学" sheetId="1" r:id="rId1"/>
+    <sheet name="中心小学" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">下埚小学!$A$1:$I$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">中心小学!$A$1:$H$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>单位</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -56,14 +64,6 @@
   </si>
   <si>
     <t>合计</t>
-  </si>
-  <si>
-    <t>芒海小学</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>南山镇芒海小学2023年代课教师工资发放表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>骆宏大</t>
@@ -128,11 +128,22 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>领导审批：</t>
+    <t xml:space="preserve">单位：南山镇中心小学                                         </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">单位：南山镇中心小学                                         </t>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山镇芒海小学2023年校聘教师工资发放表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    领导审批：</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,11 +163,13 @@
       <b/>
       <sz val="22"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -165,6 +178,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -172,6 +186,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -179,6 +194,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,24 +202,28 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -213,13 +233,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -294,7 +307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,19 +338,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -356,15 +372,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,51 +678,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,270 +732,256 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2800</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
+      <c r="B11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2500</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="8">
+        <f>SUM(F4:F11)</f>
+        <v>20300</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="4">
-        <v>2500</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="8">
-        <f>SUM(G4:G11)</f>
-        <v>20000</v>
-      </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B12:F12"/>
+  <mergeCells count="6">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I11" xr:uid="{9B8B44E8-E38A-4C2A-AEBC-151A809B14F9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H11" xr:uid="{9B8B44E8-E38A-4C2A-AEBC-151A809B14F9}">
       <formula1>"代课,工勤,保安"</formula1>
     </dataValidation>
   </dataValidations>
